--- a/data/rh_out.xlsx
+++ b/data/rh_out.xlsx
@@ -14,114 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
-  <si>
-    <t>code_utilisateur</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>old_profil</t>
-  </si>
-  <si>
-    <t>U001</t>
-  </si>
-  <si>
-    <t>U002</t>
-  </si>
-  <si>
-    <t>U003</t>
-  </si>
-  <si>
-    <t>U004</t>
-  </si>
-  <si>
-    <t>U005</t>
-  </si>
-  <si>
-    <t>U008</t>
-  </si>
-  <si>
-    <t>U009</t>
-  </si>
-  <si>
-    <t>U014</t>
-  </si>
-  <si>
-    <t>U018</t>
-  </si>
-  <si>
-    <t>U019</t>
-  </si>
-  <si>
-    <t>U021</t>
-  </si>
-  <si>
-    <t>U024</t>
-  </si>
-  <si>
-    <t>U025</t>
-  </si>
-  <si>
-    <t>U028</t>
-  </si>
-  <si>
-    <t>U029</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Bernard</t>
-  </si>
-  <si>
-    <t>Moreau</t>
-  </si>
-  <si>
-    <t>Petit</t>
-  </si>
-  <si>
-    <t>Laurent</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Isabelle</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>François</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+  <si>
+    <t>Code/identifiant utilisateur</t>
+  </si>
+  <si>
+    <t>Nom et Prénom utilisateur</t>
+  </si>
+  <si>
+    <t>Profil utilisateur</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>U108</t>
+  </si>
+  <si>
+    <t>U109</t>
+  </si>
+  <si>
+    <t>U110</t>
+  </si>
+  <si>
+    <t>U111</t>
+  </si>
+  <si>
+    <t>U112</t>
+  </si>
+  <si>
+    <t>U113</t>
+  </si>
+  <si>
+    <t>U114</t>
+  </si>
+  <si>
+    <t>User9 Test</t>
+  </si>
+  <si>
+    <t>User10 Test</t>
+  </si>
+  <si>
+    <t>User11 Test</t>
+  </si>
+  <si>
+    <t>User12 Test</t>
+  </si>
+  <si>
+    <t>User13 Test</t>
+  </si>
+  <si>
+    <t>User14 Test</t>
+  </si>
+  <si>
+    <t>User15 Test</t>
+  </si>
+  <si>
+    <t>Admin système</t>
   </si>
   <si>
     <t>Responsable RH</t>
@@ -130,46 +79,19 @@
     <t>Consultant</t>
   </si>
   <si>
-    <t>Admin Système</t>
-  </si>
-  <si>
     <t>Chef de projet</t>
   </si>
   <si>
     <t>Développeur</t>
   </si>
   <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>Analyste</t>
-  </si>
-  <si>
-    <t>Architecte</t>
-  </si>
-  <si>
-    <t>Comptable</t>
-  </si>
-  <si>
     <t>Marketing</t>
   </si>
   <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>Opérations</t>
-  </si>
-  <si>
-    <t>Ventes</t>
-  </si>
-  <si>
-    <t>IT</t>
+    <t>Informatique</t>
   </si>
   <si>
     <t>RH</t>
-  </si>
-  <si>
-    <t>Finance</t>
   </si>
 </sst>
 </file>
@@ -527,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,266 +468,103 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
